--- a/src/main/resources/templates/aaaa.xlsx
+++ b/src/main/resources/templates/aaaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4ABE27-2BA2-4414-8322-1F6C4073906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9568B003-62DA-4E49-A49B-9845AB862E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>fd:(t.shelfLife;yyyy-MM-dd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{image}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,9 +656,126 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D8 C10:D1048576">
+  <conditionalFormatting sqref="C2:D8 C10:D14 C16:D1048576 C15:C35">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>

--- a/src/main/resources/templates/aaaa.xlsx
+++ b/src/main/resources/templates/aaaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9568B003-62DA-4E49-A49B-9845AB862E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BA101-E7BA-4F52-BC98-C6D6F7BBAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -161,6 +161,74 @@
   </si>
   <si>
     <t>{{image}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{COMBO_5}}</t>
+  </si>
+  <si>
+    <t>{{COMBO_4}}</t>
+  </si>
+  <si>
+    <t>{{COMBO_3}}</t>
+  </si>
+  <si>
+    <t>{{COMBO_2}}</t>
+  </si>
+  <si>
+    <t>{{COMBO_1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b{{COMBO_SIZE_1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b{{COMBO_SIZE_2}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3b{{COMBO_SIZE_3}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b{{COMBO_SIZE_4}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5b{{COMBO_SIZE_5}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连板梯队{{COMBO_SIZE}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的池{{COMBO_MAX}})</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息面本周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要消息倒计时：{{}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短假倒计时:{{NEWS_COUNT_DOWN_SHORT}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长假倒计时:{{NEWS_COUNT_DOWN_LONG}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NEWS_FREQUENCY}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15天内频率:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +274,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +300,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -241,11 +336,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -556,21 +690,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.125" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
@@ -763,19 +897,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>20</v>
       </c>
     </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B40:F40"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D8 C10:D14 C16:D1048576 C15:C35">
+  <conditionalFormatting sqref="C2:D8 C10:D14 C16:D37 C15:C35 C55:D1048576 C42:D52 C41:E41">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"大环境"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"主线"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -783,7 +996,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9">
+  <conditionalFormatting sqref="C38:D38">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>

--- a/src/main/resources/templates/aaaa.xlsx
+++ b/src/main/resources/templates/aaaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BA101-E7BA-4F52-BC98-C6D6F7BBAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9076413-39FA-4DA4-B854-8B2DE9E9767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,8 +702,8 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
     <col min="6" max="6" width="24.625" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>

--- a/src/main/resources/templates/aaaa.xlsx
+++ b/src/main/resources/templates/aaaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9076413-39FA-4DA4-B854-8B2DE9E9767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E106E67E-3A93-408F-89ED-10B9A0AC6428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -212,23 +212,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重要消息倒计时：{{}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短假倒计时:{{NEWS_COUNT_DOWN_SHORT}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长假倒计时:{{NEWS_COUNT_DOWN_LONG}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{NEWS_FREQUENCY}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15天内频率:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要消息：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.newsType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.mainBusiness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.content}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fd:(t.date;yyyy-MM-dd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:NEWS_IMPORTANT_NEWS t.range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息:{{BASIC_COUNT_DOWN_SHORT}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长假:{{BASIC_COUNT_DOWN_LONG}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日信息：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fd:(BASIC_DATE.date;yyyy-MM-dd)}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BASIC_DATE.name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BASIC_DATE.week}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑现日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响行业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:NEWS_WEEK_NEWS t.week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有几天开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,7 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,11 +432,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -690,11 +783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,6 +1000,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>30</v>
@@ -949,38 +1062,106 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D8 C10:D14 C16:D37 C15:C35 C55:D1048576 C42:D52 C41:E41">
+  <conditionalFormatting sqref="C2:D8 C10:D14 C15:C35 C56:D1048576 A41 C16:D36 E37:F37 C42 E42:F42 C51:D53 D41:D42 C44:F44 C50 C45:D48">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"大环境"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"主线"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -988,7 +1169,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9">
+  <conditionalFormatting sqref="C38:D38">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -996,7 +1177,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:D38">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>

--- a/src/main/resources/templates/aaaa.xlsx
+++ b/src/main/resources/templates/aaaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E106E67E-3A93-408F-89ED-10B9A0AC6428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61349CCC-7D2E-4503-8B5C-BAFDBBE80D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>日期</t>
   </si>
@@ -256,18 +256,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{fd:(BASIC_DATE.date;yyyy-MM-dd)}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{BASIC_DATE.name}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{BASIC_DATE.week}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>兑现日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -297,6 +289,18 @@
   </si>
   <si>
     <t>开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{fd:(BASIC_DATE.date;yyyy-MM-dd)}}（{{BASIC_DATE.week}})</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{BASIC_NEXT_DEAL_DATE}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -429,11 +433,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,8 +789,8 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,23 +1003,28 @@
         <v>20</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="C37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1064,11 +1072,11 @@
       <c r="A40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
@@ -1077,19 +1085,19 @@
         <v>35</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="F41" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1106,7 +1114,7 @@
       <c r="E42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1115,25 +1123,25 @@
         <v>32</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>39</v>
@@ -1144,7 +1152,7 @@
       <c r="E44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1153,7 +1161,7 @@
     <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D8 C10:D14 C15:C35 C56:D1048576 A41 C16:D36 E37:F37 C42 E42:F42 C51:D53 D41:D42 C44:F44 C50 C45:D48">
+  <conditionalFormatting sqref="C2:D8 C10:D14 C15:C35 C56:D1048576 A41 E37:F37 C42 E42:F42 C51:D53 D41:D42 C44:F44 C50 C45:D48 C16:D35 D36 C37">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
